--- a/sofaplayer/Bundesliga/FC St. Pauli_stats.xlsx
+++ b/sofaplayer/Bundesliga/FC St. Pauli_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>861850</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5222222222222</v>
+        <v>6.5</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>866</v>
+        <v>948</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1409,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.8444</v>
+        <v>2.9204</v>
       </c>
       <c r="L3" t="n">
-        <v>288.66666666667</v>
+        <v>316</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
@@ -1424,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>17.647058823529</v>
+        <v>15.789473684211</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.66398181</v>
+        <v>0.66733051</v>
       </c>
       <c r="AB3" t="n">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,34 +1469,34 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.372197309417</v>
+        <v>78.008298755187</v>
       </c>
       <c r="AG3" t="n">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>42.857142857143</v>
+        <v>50</v>
       </c>
       <c r="BA3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>27.272727272727</v>
+        <v>28.205128205128</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
-        <v>25.641025641026</v>
+        <v>27.5</v>
       </c>
       <c r="BE3" t="n">
         <v>11</v>
@@ -1553,7 +1553,7 @@
         <v>28.947368421053</v>
       </c>
       <c r="BG3" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="BH3" t="n">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="BJ3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -1577,28 +1577,28 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>117.4</v>
+        <v>123.5</v>
       </c>
       <c r="BR3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS3" t="n">
         <v>3</v>
       </c>
       <c r="BT3" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BW3" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CA3" t="n">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CK3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>6</v>
       </c>
       <c r="CS3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU3" t="n">
         <v>56</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DA3" t="n">
         <v>3</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="DG3" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>1888501</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4333333333333</v>
+        <v>6.4461538461538</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1084753</v>
+        <v>0.11053789</v>
       </c>
       <c r="AB4" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,22 +1825,22 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.727272727273</v>
+        <v>73.913043478261</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>100</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>34.782608695652</v>
+        <v>36.170212765957</v>
       </c>
       <c r="BC4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD4" t="n">
-        <v>35</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BE4" t="n">
         <v>9</v>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="BI4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ4" t="n">
         <v>1</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>77.2</v>
+        <v>83.8</v>
       </c>
       <c r="BR4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="DG4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>887500</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8117647058824</v>
+        <v>6.8</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1126</v>
+        <v>1216</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.0436</v>
+        <v>4.1318</v>
       </c>
       <c r="L5" t="n">
-        <v>281.5</v>
+        <v>304</v>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
         <v>12</v>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>11.764705882353</v>
+        <v>11.428571428571</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
@@ -2169,61 +2169,61 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.19487173</v>
+        <v>3.29803773</v>
       </c>
       <c r="AB5" t="n">
-        <v>847</v>
+        <v>894</v>
       </c>
       <c r="AC5" t="n">
         <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="AF5" t="n">
-        <v>74.438687392055</v>
+        <v>74.67320261437899</v>
       </c>
       <c r="AG5" t="n">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="AH5" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AI5" t="n">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>30.612244897959</v>
+        <v>28.846153846154</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.230769230769</v>
+        <v>20.481927710843</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>9</v>
       </c>
       <c r="AR5" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -2241,40 +2241,40 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>35</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BA5" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BB5" t="n">
-        <v>35.537190082645</v>
+        <v>35.433070866142</v>
       </c>
       <c r="BC5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BD5" t="n">
-        <v>40.425531914894</v>
+        <v>40.40404040404</v>
       </c>
       <c r="BE5" t="n">
         <v>5</v>
       </c>
       <c r="BF5" t="n">
-        <v>18.518518518519</v>
+        <v>17.857142857143</v>
       </c>
       <c r="BG5" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="BH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BI5" t="n">
         <v>16</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BK5" t="n">
         <v>2</v>
@@ -2289,28 +2289,28 @@
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>115.8</v>
+        <v>122.4</v>
       </c>
       <c r="BR5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS5" t="n">
         <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW5" t="n">
         <v>3</v>
@@ -2319,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ5" t="n">
         <v>14</v>
       </c>
       <c r="CA5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CB5" t="n">
         <v>18</v>
       </c>
       <c r="CC5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="CD5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,43 +2352,43 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>27</v>
+      </c>
+      <c r="CS5" t="n">
         <v>21</v>
       </c>
-      <c r="CK5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>26</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>20</v>
-      </c>
       <c r="CT5" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="CU5" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="CV5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="DA5" t="n">
         <v>9</v>
       </c>
       <c r="DB5" t="n">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="DG5" t="n">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>925790</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2476,18 +2476,20 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.1044</v>
+      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2523,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00127495</v>
+        <v>0.00130071</v>
       </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2535,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>1</v>
@@ -2619,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="BG6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -2643,28 +2645,28 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2676,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
@@ -2709,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -2754,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -2772,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3169,16 +3171,16 @@
         <v>1002461</v>
       </c>
       <c r="E8" t="n">
-        <v>6.68</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1749</v>
+        <v>1770</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6607</v>
+        <v>0.6819</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.296518</v>
+        <v>3.3297085</v>
       </c>
       <c r="AB8" t="n">
-        <v>1152</v>
+        <v>1181</v>
       </c>
       <c r="AC8" t="n">
         <v>5</v>
@@ -3247,28 +3249,28 @@
         <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.724637681159</v>
+        <v>76.028202115159</v>
       </c>
       <c r="AG8" t="n">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="AH8" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AI8" t="n">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AJ8" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AK8" t="n">
         <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>32.142857142857</v>
+        <v>31.764705882353</v>
       </c>
       <c r="AM8" t="n">
         <v>2</v>
@@ -3277,16 +3279,16 @@
         <v>11.111111111111</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AS8" t="n">
         <v>25</v>
@@ -3313,16 +3315,16 @@
         <v>50</v>
       </c>
       <c r="BA8" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BB8" t="n">
-        <v>44.041450777202</v>
+        <v>44.102564102564</v>
       </c>
       <c r="BC8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BD8" t="n">
-        <v>44.117647058824</v>
+        <v>44.186046511628</v>
       </c>
       <c r="BE8" t="n">
         <v>10</v>
@@ -3331,10 +3333,10 @@
         <v>43.478260869565</v>
       </c>
       <c r="BG8" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI8" t="n">
         <v>8</v>
@@ -3355,22 +3357,22 @@
         <v>3</v>
       </c>
       <c r="BO8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>133.6</v>
+        <v>140</v>
       </c>
       <c r="BR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS8" t="n">
         <v>3</v>
       </c>
       <c r="BT8" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3391,13 +3393,13 @@
         <v>4</v>
       </c>
       <c r="CA8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CB8" t="n">
         <v>21</v>
       </c>
       <c r="CC8" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="CD8" t="n">
         <v>27</v>
@@ -3421,7 +3423,7 @@
         <v>31</v>
       </c>
       <c r="CK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -3451,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="CU8" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CV8" t="n">
         <v>13</v>
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="DA8" t="n">
         <v>20</v>
       </c>
       <c r="DB8" t="n">
-        <v>47.619047619048</v>
+        <v>46.511627906977</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="DG8" t="n">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3525,16 +3527,16 @@
         <v>181581</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7666666666667</v>
+        <v>6.7076923076923</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3543,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6088</v>
+        <v>0.6872</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
@@ -3591,40 +3593,40 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7042618</v>
+        <v>0.7148788</v>
       </c>
       <c r="AB9" t="n">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="AF9" t="n">
-        <v>73.98373983739801</v>
+        <v>73.188405797101</v>
       </c>
       <c r="AG9" t="n">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="AH9" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
@@ -3633,28 +3635,28 @@
         <v>14.285714285714</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AS9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -3663,34 +3665,34 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>55.555555555556</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BA9" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BB9" t="n">
-        <v>51.162790697674</v>
+        <v>48.958333333333</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="BE9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BF9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BG9" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="BH9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI9" t="n">
         <v>7</v>
@@ -3711,22 +3713,22 @@
         <v>1</v>
       </c>
       <c r="BO9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>81.2</v>
+        <v>87.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3744,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA9" t="n">
         <v>2</v>
@@ -3753,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="CC9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CD9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3774,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK9" t="n">
         <v>1</v>
@@ -3798,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CT9" t="n">
         <v>7</v>
       </c>
       <c r="CU9" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CV9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3822,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="DA9" t="n">
         <v>5</v>
       </c>
       <c r="DB9" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3840,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="DG9" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3881,16 +3883,16 @@
         <v>885892</v>
       </c>
       <c r="E10" t="n">
-        <v>6.76</v>
+        <v>6.7428571428571</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>1691</v>
+        <v>1760</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -3902,7 +3904,7 @@
         <v>0.9123</v>
       </c>
       <c r="L10" t="n">
-        <v>1691</v>
+        <v>1760</v>
       </c>
       <c r="M10" t="n">
         <v>15</v>
@@ -3947,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6996379</v>
+        <v>0.7105339000000001</v>
       </c>
       <c r="AB10" t="n">
-        <v>1042</v>
+        <v>1087</v>
       </c>
       <c r="AC10" t="n">
         <v>2</v>
@@ -3959,28 +3961,28 @@
         <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="AF10" t="n">
-        <v>76.342710997442</v>
+        <v>75.91687041564801</v>
       </c>
       <c r="AG10" t="n">
-        <v>782</v>
+        <v>818</v>
       </c>
       <c r="AH10" t="n">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AI10" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AJ10" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>27.41935483871</v>
+        <v>28.358208955224</v>
       </c>
       <c r="AM10" t="n">
         <v>3</v>
@@ -3989,22 +3991,22 @@
         <v>37.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AP10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ10" t="n">
         <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU10" t="n">
         <v>3</v>
@@ -4025,25 +4027,25 @@
         <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BB10" t="n">
-        <v>57.209302325581</v>
+        <v>57.466063348416</v>
       </c>
       <c r="BC10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BD10" t="n">
-        <v>57.627118644068</v>
+        <v>57.723577235772</v>
       </c>
       <c r="BE10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF10" t="n">
-        <v>56.701030927835</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG10" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BH10" t="n">
         <v>24</v>
@@ -4067,22 +4069,22 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>135.2</v>
+        <v>141.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4106,10 +4108,10 @@
         <v>3</v>
       </c>
       <c r="CB10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CC10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CD10" t="n">
         <v>21</v>
@@ -4130,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CK10" t="n">
         <v>3</v>
@@ -4163,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="CU10" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="CV10" t="n">
         <v>42</v>
@@ -4178,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="DA10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="DB10" t="n">
-        <v>45.945945945946</v>
+        <v>50</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4196,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="DG10" t="n">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4239,16 @@
         <v>280551</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0090909090909</v>
+        <v>6.95</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4255,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3533</v>
+        <v>0.4084</v>
       </c>
       <c r="L11" t="n">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
         <v>3</v>
@@ -4270,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4303,67 +4305,67 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.03153363</v>
+        <v>1.04813373</v>
       </c>
       <c r="AB11" t="n">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AF11" t="n">
-        <v>76.041666666667</v>
+        <v>75.544794188862</v>
       </c>
       <c r="AG11" t="n">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="AH11" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AI11" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AJ11" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>41.818181818182</v>
+        <v>43.103448275862</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.129032258065</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>6</v>
       </c>
-      <c r="AP11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>5</v>
-      </c>
       <c r="AR11" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4381,16 +4383,16 @@
         <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>64.583333333333</v>
+        <v>64</v>
       </c>
       <c r="BC11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD11" t="n">
-        <v>72.972972972973</v>
+        <v>71.79487179487199</v>
       </c>
       <c r="BE11" t="n">
         <v>4</v>
@@ -4399,7 +4401,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG11" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="BH11" t="n">
         <v>3</v>
@@ -4423,22 +4425,22 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>77.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="BR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS11" t="n">
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4456,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CD11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4486,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -4510,16 +4512,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CS11" t="n">
         <v>5</v>
       </c>
       <c r="CT11" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CU11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV11" t="n">
         <v>7</v>
@@ -4534,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="DA11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB11" t="n">
-        <v>72.222222222222</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="DG11" t="n">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4949,16 +4951,16 @@
         <v>834244</v>
       </c>
       <c r="E13" t="n">
-        <v>6.5666666666667</v>
+        <v>6.525</v>
       </c>
       <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
       <c r="H13" t="n">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4967,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2337</v>
+        <v>0.254</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5015,64 +5017,64 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.25426146</v>
+        <v>0.31821196</v>
       </c>
       <c r="AB13" t="n">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="AF13" t="n">
-        <v>79.06976744185999</v>
+        <v>76.991150442478</v>
       </c>
       <c r="AG13" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AH13" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT13" t="n">
         <v>3</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -5093,70 +5095,70 @@
         <v>100</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>47.368421052632</v>
+        <v>46.428571428571</v>
       </c>
       <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>47.619047619048</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>43</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
         <v>7</v>
       </c>
-      <c r="BD13" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>40</v>
-      </c>
-      <c r="BG13" t="n">
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
         <v>26</v>
       </c>
-      <c r="BH13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>18</v>
-      </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -5171,10 +5173,10 @@
         <v>1</v>
       </c>
       <c r="CA13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CC13" t="n">
         <v>4</v>
@@ -5198,10 +5200,10 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -5222,19 +5224,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS13" t="n">
         <v>1</v>
       </c>
       <c r="CT13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CU13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CV13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA13" t="n">
         <v>0</v>
@@ -5264,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="DG13" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,16 +5663,16 @@
         <v>971481</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6222222222222</v>
+        <v>6.6210526315789</v>
       </c>
       <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
         <v>18</v>
       </c>
-      <c r="G15" t="n">
-        <v>17</v>
-      </c>
       <c r="H15" t="n">
-        <v>1412</v>
+        <v>1502</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5679,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4501</v>
+        <v>0.4778</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
         <v>3</v>
@@ -5727,46 +5729,46 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.10589292</v>
+        <v>1.26912892</v>
       </c>
       <c r="AB15" t="n">
-        <v>922</v>
+        <v>963</v>
       </c>
       <c r="AC15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="AF15" t="n">
-        <v>76.181474480151</v>
+        <v>76.31103074140999</v>
       </c>
       <c r="AG15" t="n">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="AH15" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AI15" t="n">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>34.545454545455</v>
+        <v>32.203389830508</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.181818181818</v>
+        <v>20.833333333333</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -5778,16 +5780,16 @@
         <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
         <v>2</v>
@@ -5799,37 +5801,37 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>39.130434782609</v>
+        <v>40</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.169811320755</v>
+        <v>47.321428571429</v>
       </c>
       <c r="BC15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="BD15" t="n">
-        <v>55.263157894737</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BE15" t="n">
         <v>8</v>
       </c>
       <c r="BF15" t="n">
-        <v>26.666666666667</v>
+        <v>25.806451612903</v>
       </c>
       <c r="BG15" t="n">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="BH15" t="n">
         <v>12</v>
       </c>
       <c r="BI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -5847,22 +5849,22 @@
         <v>2</v>
       </c>
       <c r="BO15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>119.2</v>
+        <v>125.8</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5880,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA15" t="n">
         <v>5</v>
@@ -5889,10 +5891,10 @@
         <v>7</v>
       </c>
       <c r="CC15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CD15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -5934,20 +5936,20 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CS15" t="n">
+        <v>25</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>24</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>59</v>
+      </c>
+      <c r="CV15" t="n">
         <v>23</v>
       </c>
-      <c r="CT15" t="n">
-        <v>22</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>56</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>22</v>
-      </c>
       <c r="CW15" t="n">
         <v>0</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="DA15" t="n">
         <v>14</v>
@@ -5976,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="DG15" t="n">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6017,16 +6019,16 @@
         <v>57627</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7066666666667</v>
+        <v>6.65</v>
       </c>
       <c r="F16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
         <v>15</v>
       </c>
-      <c r="G16" t="n">
-        <v>14</v>
-      </c>
       <c r="H16" t="n">
-        <v>1259</v>
+        <v>1349</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6035,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0964</v>
+        <v>0.1118</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -6083,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.49831654</v>
+        <v>0.5022939</v>
       </c>
       <c r="AB16" t="n">
-        <v>956</v>
+        <v>1010</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6095,28 +6097,28 @@
         <v>2</v>
       </c>
       <c r="AE16" t="n">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.75914249684701</v>
+        <v>87.274909963986</v>
       </c>
       <c r="AG16" t="n">
-        <v>793</v>
+        <v>833</v>
       </c>
       <c r="AH16" t="n">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="AI16" t="n">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AJ16" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>39.130434782609</v>
+        <v>40.425531914894</v>
       </c>
       <c r="AM16" t="n">
         <v>2</v>
@@ -6125,25 +6127,25 @@
         <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AS16" t="n">
         <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -6161,37 +6163,37 @@
         <v>100</v>
       </c>
       <c r="BA16" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB16" t="n">
-        <v>66.666666666667</v>
+        <v>65.168539325843</v>
       </c>
       <c r="BC16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD16" t="n">
-        <v>71.79487179487199</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BE16" t="n">
         <v>28</v>
       </c>
       <c r="BF16" t="n">
-        <v>62.222222222222</v>
+        <v>59.574468085106</v>
       </c>
       <c r="BG16" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6203,22 +6205,22 @@
         <v>2</v>
       </c>
       <c r="BO16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>100.6</v>
+        <v>106.4</v>
       </c>
       <c r="BR16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6239,16 +6241,16 @@
         <v>1</v>
       </c>
       <c r="CA16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB16" t="n">
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CD16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -6266,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CK16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6299,10 +6301,10 @@
         <v>5</v>
       </c>
       <c r="CU16" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CV16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6314,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="DA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DB16" t="n">
-        <v>85.71428571428601</v>
+        <v>86.363636363636</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6332,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="DG16" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="DH16" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="DI16" t="n">
         <v>4</v>
@@ -6373,16 +6375,16 @@
         <v>252343</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7846153846154</v>
+        <v>6.75</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>902</v>
+        <v>992</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6394,7 +6396,7 @@
         <v>0.0851</v>
       </c>
       <c r="L17" t="n">
-        <v>902</v>
+        <v>992</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -6439,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.20254927</v>
+        <v>0.21352057</v>
       </c>
       <c r="AB17" t="n">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6451,28 +6453,28 @@
         <v>4</v>
       </c>
       <c r="AE17" t="n">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="AF17" t="n">
-        <v>82.66978922716601</v>
+        <v>82.655246252677</v>
       </c>
       <c r="AG17" t="n">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="AH17" t="n">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AI17" t="n">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>41.176470588235</v>
+        <v>41.818181818182</v>
       </c>
       <c r="AM17" t="n">
         <v>1</v>
@@ -6481,22 +6483,22 @@
         <v>100</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AS17" t="n">
         <v>9</v>
       </c>
       <c r="AT17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6511,22 +6513,22 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>100</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA17" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="BB17" t="n">
-        <v>56.842105263158</v>
+        <v>57.943925233645</v>
       </c>
       <c r="BC17" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="BD17" t="n">
-        <v>65</v>
+        <v>65.277777777778</v>
       </c>
       <c r="BE17" t="n">
         <v>15</v>
@@ -6535,10 +6537,10 @@
         <v>42.857142857143</v>
       </c>
       <c r="BG17" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="BH17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI17" t="n">
         <v>5</v>
@@ -6559,22 +6561,22 @@
         <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>88.2</v>
+        <v>94.5</v>
       </c>
       <c r="BR17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CK17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6649,13 +6651,13 @@
         <v>4</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CT17" t="n">
         <v>1</v>
       </c>
       <c r="CU17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CV17" t="n">
         <v>20</v>
@@ -6670,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="DA17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="DB17" t="n">
-        <v>60.606060606061</v>
+        <v>60</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="DG17" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="DH17" t="n">
         <v>18</v>
@@ -7085,16 +7087,16 @@
         <v>1125024</v>
       </c>
       <c r="E19" t="n">
-        <v>6.85</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
       <c r="H19" t="n">
-        <v>296</v>
+        <v>386</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7149,40 +7151,40 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.05871378</v>
+        <v>0.0655048</v>
       </c>
       <c r="AB19" t="n">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="n">
-        <v>81.01265822784799</v>
+        <v>83.663366336634</v>
       </c>
       <c r="AG19" t="n">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="AH19" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>8</v>
       </c>
       <c r="AL19" t="n">
-        <v>29.62962962963</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AM19" t="n">
         <v>1</v>
@@ -7191,22 +7193,22 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7227,25 +7229,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB19" t="n">
-        <v>71.875</v>
+        <v>73.529411764706</v>
       </c>
       <c r="BC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>65</v>
+      </c>
+      <c r="BE19" t="n">
         <v>12</v>
       </c>
-      <c r="BD19" t="n">
-        <v>63.157894736842</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>11</v>
-      </c>
       <c r="BF19" t="n">
-        <v>84.615384615385</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BG19" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BH19" t="n">
         <v>3</v>
@@ -7269,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="BO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="BR19" t="n">
         <v>5</v>
       </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>4</v>
-      </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7311,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="CC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD19" t="n">
         <v>3</v>
@@ -7332,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CK19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7356,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS19" t="n">
         <v>3</v>
@@ -7380,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="DA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB19" t="n">
-        <v>37.5</v>
+        <v>44.444444444444</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
+        <v>117</v>
+      </c>
+      <c r="DG19" t="n">
         <v>85</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>73</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -8151,16 +8153,16 @@
         <v>873347</v>
       </c>
       <c r="E22" t="n">
-        <v>6.52</v>
+        <v>6.5454545454545</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8217,34 +8219,34 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05467156</v>
+        <v>0.06510406000000001</v>
       </c>
       <c r="AB22" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="n">
-        <v>72.55813953488401</v>
+        <v>73.05936073059399</v>
       </c>
       <c r="AG22" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH22" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI22" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
@@ -8262,7 +8264,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
@@ -8274,7 +8276,7 @@
         <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8295,16 +8297,16 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB22" t="n">
-        <v>51.785714285714</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BC22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD22" t="n">
-        <v>59.459459459459</v>
+        <v>60.526315789474</v>
       </c>
       <c r="BE22" t="n">
         <v>7</v>
@@ -8313,7 +8315,7 @@
         <v>36.842105263158</v>
       </c>
       <c r="BG22" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH22" t="n">
         <v>5</v>
@@ -8343,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>65.2</v>
+        <v>72</v>
       </c>
       <c r="BR22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
@@ -8424,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS22" t="n">
         <v>1</v>
       </c>
       <c r="CT22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CU22" t="n">
         <v>27</v>
@@ -8454,7 +8456,7 @@
         <v>14</v>
       </c>
       <c r="DB22" t="n">
-        <v>66.666666666667</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="DG22" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="DH22" t="n">
         <v>8</v>
@@ -8507,16 +8509,16 @@
         <v>325061</v>
       </c>
       <c r="E23" t="n">
-        <v>7.0333333333333</v>
+        <v>6.9909090909091</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8571,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.04209041</v>
+        <v>0.04235708</v>
       </c>
       <c r="AB23" t="n">
-        <v>910</v>
+        <v>947</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8583,28 +8585,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="AF23" t="n">
-        <v>72.027972027972</v>
+        <v>72.506738544474</v>
       </c>
       <c r="AG23" t="n">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="AH23" t="n">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="AI23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>30.555555555556</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8622,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8649,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>100</v>
@@ -8661,13 +8663,13 @@
         <v>100</v>
       </c>
       <c r="BE23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF23" t="n">
         <v>100</v>
       </c>
       <c r="BG23" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8685,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BN23" t="n">
         <v>3</v>
       </c>
       <c r="BO23" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BP23" t="n">
         <v>2</v>
       </c>
       <c r="BQ23" t="n">
-        <v>147.7</v>
+        <v>153.8</v>
       </c>
       <c r="BR23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8733,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CD23" t="n">
         <v>31</v>
@@ -8748,28 +8750,28 @@
         <v>4</v>
       </c>
       <c r="CH23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CI23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CJ23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CK23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CM23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CN23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8802,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="DA23" t="n">
         <v>1</v>
@@ -8817,16 +8819,16 @@
         <v>0</v>
       </c>
       <c r="DE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DF23" t="n">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="DG23" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DH23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8840,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>5.2031</v>
+        <v>2.903</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/FC St. Pauli_stats.xlsx
+++ b/sofaplayer/Bundesliga/FC St. Pauli_stats.xlsx
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
@@ -1740,317 +1740,317 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abdoulie Ceesay</t>
+          <t>Danel Sinani</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1888501</v>
+        <v>887500</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4461538461538</v>
+        <v>6.8055555555556</v>
       </c>
       <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1216</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1318</v>
+      </c>
+      <c r="L4" t="n">
+        <v>304</v>
+      </c>
+      <c r="M4" t="n">
+        <v>35</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11.428571428571</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>100</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3.29783273</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>896</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>456</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>74.631751227496</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>611</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>165</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>291</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>28.846153846154</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>20.481927710843</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU4" t="n">
         <v>14</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>229</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5061</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.11053789</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>82</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>73.913043478261</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="n">
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
         <v>8</v>
       </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="AZ4" t="n">
+        <v>36.363636363636</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>35.15625</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>17.857142857143</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>288</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>155</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BW4" t="n">
         <v>3</v>
       </c>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>36.170212765957</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>38.095238095238</v>
-      </c>
-      <c r="BE4" t="n">
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>65</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>29</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>27</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>83</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>83</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>23</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>52</v>
+      </c>
+      <c r="DA4" t="n">
         <v>9</v>
       </c>
-      <c r="BF4" t="n">
-        <v>34.615384615385</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>12</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>30</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>17</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0</v>
-      </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="DG4" t="n">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2164826</v>
+        <v>2164818</v>
       </c>
       <c r="DK4" t="inlineStr">
         <is>
@@ -2096,332 +2096,332 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Danel Sinani</t>
+          <t>Abdoulie Ceesay</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>887500</v>
+        <v>1888501</v>
       </c>
       <c r="E5" t="n">
-        <v>6.8</v>
+        <v>6.4461538461538</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>229</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5061</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.11053789</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>73.913043478261</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="H5" t="n">
-        <v>1216</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1318</v>
-      </c>
-      <c r="L5" t="n">
-        <v>304</v>
-      </c>
-      <c r="M5" t="n">
-        <v>35</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>36.170212765957</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>38.095238095238</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>34.615384615385</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>26</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
         <v>12</v>
       </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>11.428571428571</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="n">
-        <v>100</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>3</v>
       </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>3.29803773</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>894</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>457</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>74.67320261437899</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>612</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>165</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>292</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>28.846153846154</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="CA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>30</v>
+      </c>
+      <c r="CV5" t="n">
         <v>17</v>
       </c>
-      <c r="AN5" t="n">
-        <v>20.481927710843</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
         <v>9</v>
       </c>
-      <c r="AR5" t="n">
-        <v>62</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>38.095238095238</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>45</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>35.433070866142</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>40</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>40.40404040404</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>17.857142857143</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>287</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>27</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>122.4</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>155</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>14</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>18</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>65</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>29</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>27</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>21</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>83</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>82</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>23</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>52</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>9</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>197</v>
-      </c>
       <c r="DG5" t="n">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2164818</v>
+        <v>2164826</v>
       </c>
       <c r="DK5" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1044</v>
+        <v>0.1437</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>181581</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7076923076923</v>
+        <v>6.7153846153846</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7148788</v>
+        <v>0.7148789</v>
       </c>
       <c r="AB9" t="n">
         <v>391</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
@@ -3668,25 +3668,25 @@
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>54.545454545455</v>
+        <v>60</v>
       </c>
       <c r="BA9" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BB9" t="n">
-        <v>48.958333333333</v>
+        <v>50</v>
       </c>
       <c r="BC9" t="n">
         <v>23</v>
       </c>
       <c r="BD9" t="n">
-        <v>50</v>
+        <v>51.111111111111</v>
       </c>
       <c r="BE9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BF9" t="n">
-        <v>48</v>
+        <v>49.019607843137</v>
       </c>
       <c r="BG9" t="n">
         <v>100</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="BR9" t="n">
         <v>13</v>
@@ -3803,13 +3803,13 @@
         <v>6</v>
       </c>
       <c r="CS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CT9" t="n">
         <v>7</v>
       </c>
       <c r="CU9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CV9" t="n">
         <v>26</v>
@@ -3883,7 +3883,7 @@
         <v>885892</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7428571428571</v>
+        <v>6.7380952380952</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7105339000000001</v>
+        <v>0.7116546</v>
       </c>
       <c r="AB10" t="n">
         <v>1087</v>
@@ -3961,19 +3961,19 @@
         <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.91687041564801</v>
+        <v>75.946275946276</v>
       </c>
       <c r="AG10" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AH10" t="n">
         <v>278</v>
       </c>
       <c r="AI10" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AJ10" t="n">
         <v>157</v>
@@ -3994,7 +3994,7 @@
         <v>39</v>
       </c>
       <c r="AP10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ10" t="n">
         <v>4</v>
@@ -4027,16 +4027,16 @@
         <v>25</v>
       </c>
       <c r="BA10" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>57.466063348416</v>
+        <v>57.272727272727</v>
       </c>
       <c r="BC10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD10" t="n">
-        <v>57.723577235772</v>
+        <v>57.377049180328</v>
       </c>
       <c r="BE10" t="n">
         <v>56</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>141.6</v>
+        <v>141.5</v>
       </c>
       <c r="BR10" t="n">
         <v>21</v>
@@ -4183,10 +4183,10 @@
         <v>67</v>
       </c>
       <c r="DA10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="DB10" t="n">
-        <v>50</v>
+        <v>48.717948717949</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>335</v>
       </c>
       <c r="DG10" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>280551</v>
       </c>
       <c r="E11" t="n">
-        <v>6.95</v>
+        <v>6.9583333333333</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4084</v>
+        <v>0.4028</v>
       </c>
       <c r="L11" t="n">
         <v>794</v>
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.04813373</v>
+        <v>1.04813523</v>
       </c>
       <c r="AB11" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,16 +4317,16 @@
         <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF11" t="n">
-        <v>75.544794188862</v>
+        <v>75.421686746988</v>
       </c>
       <c r="AG11" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AH11" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AI11" t="n">
         <v>189</v>
@@ -4338,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>43.103448275862</v>
+        <v>42.372881355932</v>
       </c>
       <c r="AM11" t="n">
         <v>5</v>
@@ -4350,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -4383,16 +4383,16 @@
         <v>60</v>
       </c>
       <c r="BA11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BB11" t="n">
-        <v>64</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BC11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD11" t="n">
-        <v>71.79487179487199</v>
+        <v>72.5</v>
       </c>
       <c r="BE11" t="n">
         <v>4</v>
@@ -4401,7 +4401,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG11" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BH11" t="n">
         <v>3</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="BR11" t="n">
         <v>12</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="BT11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="DA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB11" t="n">
-        <v>73.68421052631599</v>
+        <v>75</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="DG11" t="n">
         <v>266</v>
@@ -5020,7 +5020,7 @@
         <v>0.31821196</v>
       </c>
       <c r="AB13" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>971481</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6210526315789</v>
+        <v>6.6105263157895</v>
       </c>
       <c r="F15" t="n">
         <v>19</v>
@@ -5729,10 +5729,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.26912892</v>
+        <v>1.24386692</v>
       </c>
       <c r="AB15" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AC15" t="n">
         <v>5</v>
@@ -5741,10 +5741,10 @@
         <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF15" t="n">
-        <v>76.31103074140999</v>
+        <v>76.130198915009</v>
       </c>
       <c r="AG15" t="n">
         <v>553</v>
@@ -5753,10 +5753,10 @@
         <v>190</v>
       </c>
       <c r="AI15" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AJ15" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -5807,16 +5807,16 @@
         <v>40</v>
       </c>
       <c r="BA15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.321428571429</v>
+        <v>46.846846846847</v>
       </c>
       <c r="BC15" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD15" t="n">
-        <v>55.555555555556</v>
+        <v>55</v>
       </c>
       <c r="BE15" t="n">
         <v>8</v>
@@ -5825,13 +5825,13 @@
         <v>25.806451612903</v>
       </c>
       <c r="BG15" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BH15" t="n">
         <v>12</v>
       </c>
       <c r="BI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>125.8</v>
+        <v>125.6</v>
       </c>
       <c r="BR15" t="n">
         <v>19</v>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>252343</v>
       </c>
       <c r="E17" t="n">
-        <v>6.75</v>
+        <v>6.7428571428571</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.21352057</v>
+        <v>0.21322077</v>
       </c>
       <c r="AB17" t="n">
         <v>643</v>
@@ -6462,10 +6462,10 @@
         <v>467</v>
       </c>
       <c r="AH17" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI17" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ17" t="n">
         <v>51</v>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
         <v>40</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS17" t="n">
         <v>9</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="BR17" t="n">
         <v>14</v>
@@ -6675,10 +6675,10 @@
         <v>55</v>
       </c>
       <c r="DA17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DB17" t="n">
-        <v>60</v>
+        <v>57.5</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DG17" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="DH17" t="n">
         <v>18</v>
@@ -8153,7 +8153,7 @@
         <v>873347</v>
       </c>
       <c r="E22" t="n">
-        <v>6.5454545454545</v>
+        <v>6.5363636363636</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="BR22" t="n">
         <v>11</v>
@@ -8509,7 +8509,7 @@
         <v>325061</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9909090909091</v>
+        <v>6.9954545454545</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -8699,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="BQ23" t="n">
-        <v>153.8</v>
+        <v>153.9</v>
       </c>
       <c r="BR23" t="n">
         <v>22</v>
@@ -8765,10 +8765,10 @@
         <v>12</v>
       </c>
       <c r="CM23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CO23" t="n">
         <v>14</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>2.903</v>
+        <v>2.9842</v>
       </c>
     </row>
   </sheetData>
